--- a/log/PSOELM_extracted_result/PSOELM_slp45_result/PSOELM_slp45_result.xlsx
+++ b/log/PSOELM_extracted_result/PSOELM_slp45_result/PSOELM_slp45_result.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\thesis\PSOELM_slp45_result\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fennia\Documents\MATLAB\thesis\log\PSOELM_extracted_result\PSOELM_slp45_result\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="68">
   <si>
     <t>Experiment</t>
   </si>
@@ -229,6 +229,9 @@
   </si>
   <si>
     <t>2 3 8 10 11 12 14 15 16 17 18</t>
+  </si>
+  <si>
+    <t>BEST EXPERIMENT</t>
   </si>
 </sst>
 </file>
@@ -595,7 +598,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,6 +844,9 @@
       </c>
       <c r="F12">
         <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1133,7 +1139,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1461,7 +1467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1481,7 +1487,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1501,7 +1507,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1521,7 +1527,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1540,8 +1546,11 @@
       <c r="F20" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1561,7 +1570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1581,7 +1590,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1601,7 +1610,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1621,7 +1630,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1641,7 +1650,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1716,7 +1725,7 @@
         <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2314,7 +2323,7 @@
         <v>45</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
